--- a/src/test/resources/jxls3/HelloWorld.xlsx
+++ b/src/test/resources/jxls3/HelloWorld.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_Projects\jdk17app\src\test\resources\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1733B3B-9879-405A-9BAE-D19135DB8E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800CEF68-5799-457F-835F-94FBD2AC28F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5085" windowWidth="18000" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D
-2")</t>
+jx:area(lastCell="D2")</t>
         </r>
       </text>
     </comment>
@@ -114,11 +113,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${birthDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${payment}</t>
+    <t>${e.birthDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.payment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,15 +461,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
